--- a/biology/Botanique/Grassette_d'Arvet-Touvet/Grassette_d'Arvet-Touvet.xlsx
+++ b/biology/Botanique/Grassette_d'Arvet-Touvet/Grassette_d'Arvet-Touvet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grassette_d%27Arvet-Touvet</t>
+          <t>Grassette_d'Arvet-Touvet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinguicula arvetii
 La grassette d'Arvet-Touvet  (Pinguicula arvetii Genty) est une plante herbacée vivace de la famille des Lentibulariacées appartenant au genre Pinguicula.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grassette_d%27Arvet-Touvet</t>
+          <t>Grassette_d'Arvet-Touvet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grassette d'Arvet-Touvet, longtemps confondue avec Pinguicula grandiflora et Pinguicula vulgaris est une plante herbacée terrestre vivace, à feuilles vert tendre, oblongues et possédant des poils glanduleux.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grassette_d%27Arvet-Touvet</t>
+          <t>Grassette_d'Arvet-Touvet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante des tourbières basses basophiles que l'on retrouve dans les groupements végétaux relevant du Caricion davallianae Klika 1934.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grassette_d%27Arvet-Touvet</t>
+          <t>Grassette_d'Arvet-Touvet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique des Alpes cottiennes et du massif du Mercantour - Argentera. On la trouve par exemple dans la réserve naturelle nationale de Ristolas - Mont-Viso. 
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grassette_d%27Arvet-Touvet</t>
+          <t>Grassette_d'Arvet-Touvet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est protégée dans la région Provence-Alpes-Côte d'Azur, et par conséquent sur l'ensemble de son aire de répartition naturelle.
 </t>
